--- a/Sample Data Upload.xlsx
+++ b/Sample Data Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Coding Projects\RiskVault\RiskVault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DF63E-2DB9-4C93-8376-C9BFEB580E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B47F2A-B0D5-4E5A-B8A5-18F1DB40737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38B0F80D-0539-424E-8CB2-6A392DD71840}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -216,6 +216,27 @@
   </si>
   <si>
     <t>S87 VBN</t>
+  </si>
+  <si>
+    <t>Car colour</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Yellow</t>
   </si>
 </sst>
 </file>
@@ -601,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4989984-C064-415D-9E5C-3B7B0CC03E7D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +637,7 @@
     <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,8 +653,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -649,8 +673,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -666,8 +693,11 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -683,8 +713,11 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -700,8 +733,11 @@
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -717,8 +753,11 @@
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -734,8 +773,11 @@
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -751,8 +793,11 @@
       <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -768,8 +813,11 @@
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -785,8 +833,11 @@
       <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -802,8 +853,11 @@
       <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -819,8 +873,12 @@
       <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>